--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604121.8594283521</v>
+        <v>601683.4694699348</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>380.8187105762408</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.10770370626805</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>166.1900645037739</v>
+        <v>44.45149398002555</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>36.02766158664616</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>97.32228826427088</v>
       </c>
       <c r="T5" t="n">
-        <v>96.42179912612296</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>43.60518237482205</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>119.8620943363778</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>275.0428790940286</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>52.477506711937</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>26.66925886830995</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>331.638843934971</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>359.5517498754676</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1582,7 +1582,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>242.4293843830499</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833944</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2041656279965</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174149</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819309</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570047049</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>-6.032981521760424e-12</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419834501</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722639</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188834</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819418</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699889</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>122.2059282187609</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419834307</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>115.2707447515121</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>22.65115569188834</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>137.0965178272089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833906</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2017.176752346154</v>
+        <v>1250.335715170984</v>
       </c>
       <c r="C2" t="n">
-        <v>1648.214235405742</v>
+        <v>881.3731982305719</v>
       </c>
       <c r="D2" t="n">
-        <v>1289.948536798992</v>
+        <v>523.1074996238214</v>
       </c>
       <c r="E2" t="n">
-        <v>904.1602842007474</v>
+        <v>523.1074996238214</v>
       </c>
       <c r="F2" t="n">
-        <v>493.1743794111398</v>
+        <v>523.1074996238214</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.0350494688178</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.0350494688178</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410101</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2793.915924386087</v>
+        <v>2027.074887210917</v>
       </c>
       <c r="Y2" t="n">
-        <v>2403.776592410275</v>
+        <v>1636.935555235105</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.0249360836216</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="C4" t="n">
-        <v>142.0249360836216</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="D4" t="n">
-        <v>142.0249360836216</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="E4" t="n">
-        <v>142.0249360836216</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4525,13 +4525,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836216</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1917.382287315189</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T5" t="n">
-        <v>3228.210064916118</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>2974.679588189954</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>2643.616700846384</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2290.848045576269</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>1917.382287315189</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>1917.382287315189</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.4317969248226</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1793.418452083574</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1504.315585209218</v>
+        <v>1302.938768680375</v>
       </c>
       <c r="V7" t="n">
-        <v>1249.631097003331</v>
+        <v>1048.254280474488</v>
       </c>
       <c r="W7" t="n">
-        <v>960.2139269663701</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X7" t="n">
-        <v>732.2243760683527</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y7" t="n">
-        <v>511.4317969248226</v>
+        <v>310.0549803959802</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.584018541385</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1063.934757721591</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3272.598239071861</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3066.620491456084</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.620491456084</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.557604112513</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.788948842398</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.323190581319</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.183858605507</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>943.1160480830762</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614634</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.196732007884</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>742.422574620032</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
         <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L11" t="n">
         <v>1461.457663018651</v>
@@ -5057,34 +5057,34 @@
         <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
         <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608056</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>583.5439560698319</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>1175.56231032196</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>846.8182155057106</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>696.7015760933748</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>548.7884825109817</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>401.8985350130713</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
         <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
         <v>171.7937461156345</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1780.648635819995</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1525.964147614108</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.546977577148</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1236.546977577148</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1015.754398433617</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>562.8579153358608</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>1058.18352155162</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1655.562009178172</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616109</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D16" t="n">
-        <v>489.8360330454435</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E16" t="n">
-        <v>341.9229394630504</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F16" t="n">
-        <v>195.03299196514</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G16" t="n">
-        <v>195.03299196514</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400791</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998356</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>590.909656468498</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6309,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654462</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891998</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400789</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121721</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S31" t="n">
-        <v>2323.522752046159</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T31" t="n">
-        <v>2103.9212870691</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U31" t="n">
-        <v>1814.846060413298</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V31" t="n">
-        <v>1560.161572207411</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W31" t="n">
-        <v>1560.161572207411</v>
+        <v>1144.284195611866</v>
       </c>
       <c r="X31" t="n">
-        <v>1332.172021309394</v>
+        <v>916.2946447138488</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.379442165864</v>
+        <v>695.5020655703187</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>590.909656468498</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1815.886107649657</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2367.795837888944</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2367.795837888944</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998336</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998336</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797787</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.482284124065</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.880819147006</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.805592491204</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.121104285317</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.6442739835331</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W40" t="n">
-        <v>1478.07486885532</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>1250.085317957303</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.292738813773</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156755</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>867.8220324314344</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7664,34 +7664,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.156675004196586e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4692260666579021</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>203.5410361746951</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.406301059923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.29152613729082</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.29152613729002</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>43.75606716537055</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.471675939627816e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844822973</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>40.09054721822739</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409392298</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>138.4949402405122</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382458623</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067395</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631855854</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-2.945315721635453e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823011</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844822342</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>58.8203577828837</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382458818</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>65.75554125013252</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823017</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>144.5956654067395</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>149.4264805093821</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823011</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.265263452949</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>952107.8203560823</v>
+        <v>952107.8203560805</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503242</v>
+        <v>375475.6212503236</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190153</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="H2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="I2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="J2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="K2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>403573.299845003</v>
       </c>
-      <c r="K2" t="n">
-        <v>403573.299845003</v>
-      </c>
-      <c r="L2" t="n">
-        <v>403573.2998450031</v>
-      </c>
       <c r="M2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189856</v>
+        <v>313680.0588189858</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504085</v>
+        <v>11452.26311504189</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832924</v>
+        <v>81924.27863832927</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704618</v>
+        <v>3077.017355704785</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53398.42151983306</v>
+        <v>53398.42151983222</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
         <v>14210.2194556297</v>
@@ -26448,7 +26448,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26479,28 +26479,28 @@
         <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1114601.486558495</v>
+        <v>-1114776.712876904</v>
       </c>
       <c r="C6" t="n">
-        <v>209183.1575225418</v>
+        <v>209183.1575225419</v>
       </c>
       <c r="D6" t="n">
-        <v>209183.1575225419</v>
+        <v>209183.1575225421</v>
       </c>
       <c r="E6" t="n">
-        <v>-26692.52096943845</v>
+        <v>-26738.42596500407</v>
       </c>
       <c r="F6" t="n">
-        <v>276781.7548292</v>
+        <v>276747.0169037633</v>
       </c>
       <c r="G6" t="n">
-        <v>288234.0179442409</v>
+        <v>288199.280018805</v>
       </c>
       <c r="H6" t="n">
-        <v>288234.0179442407</v>
+        <v>288199.2800188054</v>
       </c>
       <c r="I6" t="n">
-        <v>288234.0179442409</v>
+        <v>288199.2800188051</v>
       </c>
       <c r="J6" t="n">
-        <v>70702.81554696341</v>
+        <v>70668.07762152767</v>
       </c>
       <c r="K6" t="n">
-        <v>288234.0179442408</v>
+        <v>288199.2800188052</v>
       </c>
       <c r="L6" t="n">
-        <v>288234.0179442409</v>
+        <v>288199.2800188051</v>
       </c>
       <c r="M6" t="n">
-        <v>206309.7393059117</v>
+        <v>206275.0013804758</v>
       </c>
       <c r="N6" t="n">
-        <v>285157.0005885363</v>
+        <v>285122.2626631005</v>
       </c>
       <c r="O6" t="n">
-        <v>288234.0179442409</v>
+        <v>288199.2800188052</v>
       </c>
       <c r="P6" t="n">
-        <v>288234.0179442411</v>
+        <v>288199.2800188051</v>
       </c>
     </row>
   </sheetData>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230875</v>
+        <v>268.2643481230878</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625287693</v>
+        <v>9.934451625288602</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237142</v>
       </c>
       <c r="F4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237142</v>
       </c>
       <c r="N4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237142</v>
       </c>
       <c r="N4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30.1030150772126</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>325.2796066984435</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>21.59472895491427</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>11.86547352390495</v>
       </c>
       <c r="T5" t="n">
-        <v>107.4961710134972</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>175.9437669013471</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>166.3497438692351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>106.8874909782331</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.71025507623884</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>259.853739468281</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>6.41004286687045e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-2.600178789511234e-12</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.238720855261711e-12</v>
       </c>
     </row>
     <row r="21">
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>6.032981521760424e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,10 +31598,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31610,28 +31610,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
         <v>634.2436048745725</v>
@@ -31850,10 +31850,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>313.3538858578414</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982454</v>
@@ -31862,7 +31862,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139893</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>316.0872899694781</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948339</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>320.9147064709946</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305184</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>232.1537035940574</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561985</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>590.4022545401843</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635139</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>396.9700886943659</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.084476357169</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175656</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685829</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364643</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35258,19 +35258,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
         <v>495.6892250946983</v>
@@ -35498,10 +35498,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>182.0121737745081</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839152</v>
@@ -35510,7 +35510,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>322.6208179396303</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>173.4910455250337</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281556</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>189.5729943876613</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>90.01966967203906</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728652</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>451.8478747603102</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999054</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774924</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191355</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723476</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351506</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.5512458942239</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565901</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
